--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
